--- a/Metriche.xlsx
+++ b/Metriche.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandropetrina/Desktop/Multimedia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F933578-C6EC-284C-A147-3301777C839A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E98883-38F2-2A44-86A7-38BB952B9FBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="640" windowWidth="28040" windowHeight="17440" xr2:uid="{5470F4AA-3313-C740-AB09-898E67A45EC8}"/>
+    <workbookView xWindow="3100" yWindow="1720" windowWidth="28040" windowHeight="17440" xr2:uid="{5470F4AA-3313-C740-AB09-898E67A45EC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
   <si>
     <t>img1</t>
   </si>
@@ -307,12 +307,18 @@
   <si>
     <t>O = Originale</t>
   </si>
+  <si>
+    <t>Media uso F</t>
+  </si>
+  <si>
+    <t>Media uso J</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -364,6 +370,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -385,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -408,6 +422,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -724,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0EDC0C-D15F-F447-8910-53E2EFB3DFF5}">
   <dimension ref="B1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -734,7 +750,7 @@
     <col min="5" max="6" width="11.83203125" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="18.1640625" customWidth="1"/>
     <col min="12" max="12" width="15.5" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
@@ -1561,7 +1577,7 @@
         <v>7</v>
       </c>
       <c r="S18" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V18" s="5">
         <v>10</v>
@@ -1683,7 +1699,7 @@
         <v>38</v>
       </c>
       <c r="L21" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M21" s="5">
         <v>7</v>
@@ -1930,7 +1946,7 @@
       </c>
       <c r="L27" s="1">
         <f>AVERAGE(M6:M8:M11:M13:M16:M18:M21:M23:R6:R8:R11:R13:R16:R18:R21:R23:W6:W8:W11:W13:W16:W18:W21:W23)</f>
-        <v>8.1190476190476186</v>
+        <v>8.1309523809523814</v>
       </c>
     </row>
     <row r="28" spans="2:24">
@@ -1960,7 +1976,7 @@
       </c>
       <c r="L28" s="1">
         <f>AVERAGE(N6:N8:N11:N13:N16:N18:N21:N23:S6:S8:S11:S13:S16:S18:S21:S23:X6:X8:X11:X13:X16:X18:X21:X23)</f>
-        <v>8.3452380952380949</v>
+        <v>8.3571428571428577</v>
       </c>
     </row>
     <row r="29" spans="2:24">
@@ -2008,8 +2024,13 @@
       <c r="H30">
         <v>0.53</v>
       </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="8"/>
+      <c r="K30" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" s="13">
+        <f>AVERAGE(M6:M8:N11:N13:M16:M18:M21:M23:R6:R8:R11:R13:R16:R18:Q21:Q23:V6:V8:W11:W13:W16:W18:X21:X23)</f>
+        <v>8.1458333333333339</v>
+      </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -2043,8 +2064,13 @@
       <c r="H31">
         <v>0.75</v>
       </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
+      <c r="K31" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" s="13">
+        <f>AVERAGE(N6:N8:M11:M13:L16:L18:L21:L23:Q6:Q8:S11:S13:S16:S18:S21:S23:X6:X8:V11:V13:X16:X18:W21:W23)</f>
+        <v>8.1296296296296298</v>
+      </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
